--- a/spreadsheet/acr_security_checklist.es.xlsx
+++ b/spreadsheet/acr_security_checklist.es.xlsx
@@ -1100,22 +1100,22 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Seguridad de red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Controle el acceso a la red entrante con Private Link</t>
+          <t>Deshabilitar la exportación de imágenes de Azure Container Registry</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>El servicio admite la deshabilitación del acceso a la red pública mediante el uso de la regla de filtrado de ACL de IP de nivel de servicio (no NSG o Azure Firewall) o mediante un conmutador de alternancia "Deshabilitar acceso a redes públicas"</t>
+          <t>Desactive la exportación de imágenes para evitar la exfiltración de datos. Tenga en cuenta que esto evitará la importación de imágenes a otra instancia de ACR.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/container-registry/data-loss-prevention</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
+          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1150,22 +1150,22 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Seguridad de red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>Habilitación de directivas de Azure para Azure Container Registry</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública si el acceso a la red entrante está protegido mediante Private Link</t>
+          <t>Habilitar la visibilidad del cumplimiento de auditoría habilitando Azure Policy for Azur eContainer Registry</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-access-selected-networks#disable-public-network-access</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-azure-policy</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
+          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Seguridad de red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Use una SKU de Azure Container Registry que admita Private Link (SKU Premium)</t>
+          <t>Firmar y verificar contenedores con notación (Notario v2)</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Solo la SKU Premium de ACR admite el acceso a Private Link</t>
+          <t>Azure Key Vault (AKV) se usa para almacenar una clave de firma que se puede utilizar mediante notación con el complemento de notación AKV (azure-kv) para firmar y comprobar imágenes de contenedor y otros artefactos. Azure Container Registry (ACR) permite adjuntar estas firmas mediante los comandos az u oras CLI.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-skus</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-tutorial-sign-build-push</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
+          <t>d345293c-7639-4637-a551-c5c04e401955</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,22 +1250,22 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Seguridad de red</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Habilitar Defender for Containers para examinar Azure Container Registry en busca de vulnerabilidades</t>
+          <t>Cifrar el registro con una clave administrada por el cliente</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender para contenedores o el servicio equivalente se debe usar para examinar imágenes de contenedor en busca de vulnerabilidades</t>
+          <t>Azure Container Registry cifra automáticamente las imágenes y otros artefactos que almacena. De forma predeterminada, Azure cifra automáticamente el contenido del Registro en reposo mediante claves administradas por el servicio. Mediante el uso de una clave administrada por el cliente, puede complementar el cifrado predeterminado con una capa de cifrado adicional.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/container-registry/tutorial-customer-managed-keys</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
+          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Identidad y control de acceso</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar la exportación de imágenes de Azure Container Registry</t>
+          <t>Asigne roles RBAC de AcrPull y AcrPush en lugar de otorgar acceso administrativo a las entidades de identidad</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>Desactive la exportación de imágenes para evitar la exfiltración de datos. Tenga en cuenta que esto evitará la importación de imágenes a otra instancia de ACR.</t>
+          <t>Deshabilitar la cuenta de administrador y asignar roles RBAC a las entidades de seguridad para las operaciones de extracción/inserción de ACR</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/data-loss-prevention</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-roles?tabs=azure-cli</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
+          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,22 +1450,22 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Identidad y control de acceso</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Habilitación de directivas de Azure para Azure Container Registry</t>
+          <t>Deshabilitar el acceso de extracción anónimo</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Habilitar la visibilidad del cumplimiento de auditoría habilitando Azure Policy for Azur eContainer Registry</t>
+          <t>Deshabilitar el acceso anónimo de extracción/inserción</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/container-registry/anonymous-pull-access#configure-anonymous-pull-access</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
+          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1500,17 +1500,17 @@
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Identidad y control de acceso</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Firmar y verificar contenedores con notación (Notario v2)</t>
+          <t>Deshabilitar tokens de acceso con ámbito de repositorio</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault (AKV) se usa para almacenar una clave de firma que se puede utilizar mediante notación con el complemento de notación AKV (azure-kv) para firmar y comprobar imágenes de contenedor y otros artefactos. Azure Container Registry (ACR) permite adjuntar estas firmas mediante los comandos az u oras CLI.</t>
+          <t>La autenticación de token no admite la asignación a una entidad de seguridad de AAD. Cualquier token proporcionado puede ser utilizado por cualquier persona que pueda acceder al token.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-tutorial-sign-build-push</t>
+          <t>https://learn.microsoft.com/en-gb/azure/container-registry/container-registry-authentication?tabs=azure-cli</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>d345293c-7639-4637-a551-c5c04e401955</t>
+          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Asigne roles RBAC de AcrPull y AcrPush en lugar de otorgar acceso administrativo a las entidades de identidad</t>
+          <t>Implementar imágenes desde un entorno de confianza</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar la cuenta de administrador y asignar roles RBAC a las entidades de seguridad para las operaciones de extracción/inserción de ACR</t>
+          <t>Implementar imágenes de contenedor en un ACR detrás de un punto de conexión privado dentro de una red de confianza</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1574,17 +1574,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-roles?tabs=azure-cli</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
       <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
+          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,12 +1601,12 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso de extracción anónimo</t>
+          <t>Deshabilitar tokens de audiencia de Azure ARM para la autenticación</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso anónimo de extracción/inserción</t>
+          <t>Solo se pueden usar tokens con una audiencia ACR para la autenticación. Se utiliza al analizar directivas de acceso condicional para ACR</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1626,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/anonymous-pull-access#configure-anonymous-pull-access</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-enable-conditional-access-policy</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
+          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,22 +1646,22 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Identidad y control de acceso</t>
+          <t>Registro y supervisión</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar tokens de acceso con ámbito de repositorio</t>
+          <t>Habilitar el registro de diagnósticos</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>La autenticación de token no admite la asignación a una entidad de seguridad de AAD. Cualquier token proporcionado puede ser utilizado por cualquier persona que pueda acceder al token.</t>
+          <t>Configure una configuración de diagnóstico para enviar 'repositoryEvents' y 'LoginEvents' a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso ACR.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/azure/container-registry/container-registry-authentication?tabs=azure-cli</t>
+          <t>https://learn.microsoft.com/azure/container-registry/monitor-service</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
+          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1700,17 +1696,17 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Registro y supervisión</t>
+          <t>Seguridad de red</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnósticos</t>
+          <t>Controle el acceso a la red entrante con Private Link</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Configure una configuración de diagnóstico para enviar 'repositoryEvents' y 'LoginEvents' a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso ACR.</t>
+          <t>El servicio admite la deshabilitación del acceso a la red pública mediante el uso de la regla de filtrado de ACL de IP de nivel de servicio (no NSG o Azure Firewall) o mediante un conmutador de alternancia "Deshabilitar acceso a redes públicas"</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
@@ -1726,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/monitor-service</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
+          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1750,22 +1746,22 @@
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Identidad y control de acceso</t>
+          <t>Seguridad de red</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Implementar imágenes desde un entorno de confianza</t>
+          <t>Deshabilitar el acceso a la red pública</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Implementar imágenes de contenedor en un ACR detrás de un punto de conexión privado dentro de una red de confianza</t>
+          <t>Deshabilitar el acceso a la red pública si el acceso a la red entrante está protegido mediante Private Link</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1774,13 +1770,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="n"/>
+      <c r="H21" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-access-selected-networks#disable-public-network-access</t>
+        </is>
+      </c>
       <c r="I21" s="16" t="n"/>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
+          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Seguridad de red</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Cifrar el registro con una clave administrada por el cliente</t>
+          <t>Use una SKU de Azure Container Registry que admita Private Link (SKU Premium)</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>Azure Container Registry cifra automáticamente las imágenes y otros artefactos que almacena. De forma predeterminada, Azure cifra automáticamente el contenido del Registro en reposo mediante claves administradas por el servicio. Mediante el uso de una clave administrada por el cliente, puede complementar el cifrado predeterminado con una capa de cifrado adicional.</t>
+          <t>Solo la SKU Premium de ACR admite el acceso a Private Link</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/tutorial-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-skus</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
+          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Identidad y control de acceso</t>
+          <t>Seguridad de red</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar tokens de audiencia de Azure ARM para la autenticación</t>
+          <t>Habilitar Defender for Containers para examinar Azure Container Registry en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Solo se pueden usar tokens con una audiencia ACR para la autenticación. Se utiliza al analizar directivas de acceso condicional para ACR</t>
+          <t>Azure Defender para contenedores o el servicio equivalente se debe usar para examinar imágenes de contenedor en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-enable-conditional-access-policy</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
+          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -11593,7 +11593,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11677,7 +11677,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11734,43 +11734,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Automatización de aplicaciones y DevOps</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12036,7 +12036,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/acr_security_checklist.es.xlsx
+++ b/spreadsheet/acr_security_checklist.es.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Habilitar la visibilidad del cumplimiento de auditoría habilitando Azure Policy for Azur eContainer Registry</t>
+          <t>Habilite la visibilidad del cumplimiento de auditoría habilitando Azure Policy for Azure Container Registry</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Solo se pueden usar tokens con una audiencia ACR para la autenticación. Se utiliza al analizar directivas de acceso condicional para ACR</t>
+          <t>Solo se pueden usar tokens con una audiencia ACR para la autenticación. Se usa al habilitar directivas de acceso condicional para ACR</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender para contenedores o el servicio equivalente se debe usar para examinar imágenes de contenedor en busca de vulnerabilidades</t>
+          <t>Azure Defender para contenedores o un servicio equivalente debe usarse para examinar imágenes de contenedor en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
